--- a/project/public/file/current-input-data2.xlsx
+++ b/project/public/file/current-input-data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5742B9C6-720A-4AF1-9316-1ABEB1054988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF5604-DCE7-46F6-AED1-291C9B93D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
   <si>
     <t>단체명</t>
   </si>
@@ -420,15 +420,35 @@
   </si>
   <si>
     <t>여자</t>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -473,11 +493,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="47" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2581,8 +2604,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>